--- a/Section 5 - Supply chain statistical analysis/22.1 bike_Demand.xlsx
+++ b/Section 5 - Supply chain statistical analysis/22.1 bike_Demand.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\-Hey-\SCM\Udemy - RA Data Science and Supply Chain analytics. A-Z with Python 2020-9\5. Supply chain statistical analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Products\Codes\Python\github_codes\Course-Data-Science-and-Supply-Chain-analytics-with-Python\Section 5 - Supply chain statistical analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{6F7FF34C-F25E-4162-BD14-C059A6C1F21B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0B369B-8986-4BBD-A193-8384DBBF1CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="22.1 bike_Demand" sheetId="1" r:id="rId1"/>
@@ -18,20 +18,27 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'22.1 bike_Demand'!$C$1</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'22.1 bike_Demand'!$C$2:$C$301</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'22.1 bike_Demand'!$C$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'22.1 bike_Demand'!$C$2:$C$301</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>abdelhameed khamis</author>
   </authors>
   <commentList>
-    <comment ref="L23" authorId="0" shapeId="0">
+    <comment ref="L23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -134,7 +141,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
@@ -287,7 +294,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -470,6 +477,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,7 +674,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -675,6 +688,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1401,8 +1418,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8534400" y="0"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="15963900" y="0"/>
+              <a:ext cx="4572000" cy="5149850"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1731,11 +1748,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F10" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="F12" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1813,13 +1830,13 @@
       <c r="G4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="9" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="10" t="s">
         <v>7</v>
       </c>
       <c r="K4" s="8" t="s">
@@ -1932,7 +1949,7 @@
         <v>7.1680662205028242E-3</v>
       </c>
       <c r="K7" s="2">
-        <f t="shared" ref="K7:L16" si="4">J7-J6</f>
+        <f t="shared" ref="K7:K16" si="4">J7-J6</f>
         <v>6.3635898686007107E-3</v>
       </c>
       <c r="L7" s="3">
